--- a/nutrient_excel.xlsx
+++ b/nutrient_excel.xlsx
@@ -5,13 +5,16 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="シート2" sheetId="1" r:id="rId4"/>
+    <sheet name="シート1" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+  <si>
+    <t>表1</t>
+  </si>
   <si>
     <t>energy</t>
   </si>
@@ -58,10 +61,19 @@
     <t>salt_equivalent</t>
   </si>
   <si>
-    <t>(0)</t>
+    <t>0</t>
   </si>
   <si>
-    <t>0</t>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
   </si>
 </sst>
 </file>
@@ -98,7 +110,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,8 +123,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -131,7 +149,37 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -143,7 +191,37 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -171,12 +249,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -184,16 +265,31 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -215,6 +311,8 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1243,259 +1341,842 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A2:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="15" width="19.6016" style="1" customWidth="1"/>
     <col min="16" max="16384" width="19.6016" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.65" customHeight="1">
+    <row r="1" ht="25.95" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" ht="22.55" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="B2" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="C2" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="D2" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="E2" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="F2" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="G2" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="H2" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="3">
+      <c r="I2" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="3">
+      <c r="J2" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="3">
+      <c r="K2" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="3">
+      <c r="L2" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="3">
+      <c r="M2" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="3">
+      <c r="N2" t="s" s="4">
         <v>14</v>
       </c>
+      <c r="O2" t="s" s="4">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" ht="20.2" customHeight="1">
-      <c r="A2" s="4">
-        <v>343</v>
-      </c>
-      <c r="B2" s="4">
-        <v>12.7</v>
-      </c>
-      <c r="C2" s="4">
-        <v>7.4</v>
-      </c>
-      <c r="D2" s="4">
-        <v>160</v>
-      </c>
-      <c r="E2" s="4">
-        <v>270</v>
-      </c>
-      <c r="F2" s="4">
-        <v>540</v>
-      </c>
-      <c r="G2" s="4">
-        <v>9.4</v>
-      </c>
-      <c r="H2" s="4">
-        <v>5.8</v>
-      </c>
-      <c r="I2" s="4">
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" s="5">
+        <v>248</v>
+      </c>
+      <c r="B3" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="C3" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7">
+        <v>67</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="7">
         <v>1</v>
       </c>
-      <c r="J2" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.58</v>
-      </c>
-      <c r="L2" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="M2" s="4">
-        <v>130</v>
-      </c>
-      <c r="N2" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="O2" t="s" s="5">
+      <c r="J3" t="s" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" ht="19.85" customHeight="1">
-      <c r="A3" s="6">
-        <v>346</v>
-      </c>
-      <c r="B3" s="6">
-        <v>11.2</v>
-      </c>
-      <c r="C3" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="D3" s="6">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6">
-        <v>110</v>
-      </c>
-      <c r="F3" s="6">
-        <v>280</v>
-      </c>
-      <c r="G3" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="H3" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="I3" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="L3" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="M3" s="6">
-        <v>29</v>
-      </c>
-      <c r="N3" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="O3" t="s" s="7">
-        <v>16</v>
+      <c r="K3" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>30</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1.2</v>
       </c>
     </row>
     <row r="4" ht="19.85" customHeight="1">
-      <c r="A4" s="6">
-        <v>210</v>
-      </c>
-      <c r="B4" s="6">
-        <v>5.1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="A4" s="9">
+        <v>113</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1.1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>3</v>
+      </c>
+      <c r="E4" s="11">
         <v>5</v>
       </c>
-      <c r="E4" s="6">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6">
-        <v>39</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1.1</v>
-      </c>
-      <c r="I4" t="s" s="7">
+      <c r="F4" s="11">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="I4" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="J4" t="s" s="7">
+      <c r="J4" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="K4" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="L4" t="s" s="7">
+      <c r="K4" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L4" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="M4" s="6">
-        <v>7</v>
-      </c>
-      <c r="N4" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="O4" t="s" s="7">
-        <v>16</v>
+      <c r="M4" s="11">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="19.85" customHeight="1">
-      <c r="A5" s="6">
-        <v>350</v>
-      </c>
-      <c r="B5" s="6">
-        <v>13.7</v>
-      </c>
-      <c r="C5" s="6">
-        <v>9.4</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="A5" s="9">
+        <v>59</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="C5" s="11">
+        <v>8.9</v>
+      </c>
+      <c r="D5" s="11">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11">
+        <v>19</v>
+      </c>
+      <c r="F5" s="11">
         <v>47</v>
       </c>
-      <c r="E5" s="6">
-        <v>100</v>
-      </c>
-      <c r="F5" s="6">
-        <v>370</v>
-      </c>
-      <c r="G5" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="H5" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="I5" t="s" s="7">
+      <c r="G5" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>20</v>
+      </c>
+      <c r="N5" s="11">
+        <v>28</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="19.85" customHeight="1">
+      <c r="A6" s="9">
+        <v>32</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="D6" s="11">
+        <v>24</v>
+      </c>
+      <c r="E6" s="11">
+        <v>9</v>
+      </c>
+      <c r="F6" s="11">
+        <v>28</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>23</v>
+      </c>
+      <c r="N6" s="11">
+        <v>4</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" ht="19.85" customHeight="1">
+      <c r="A7" s="9">
+        <v>31</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="D7" s="11">
+        <v>17</v>
+      </c>
+      <c r="E7" s="11">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11">
+        <v>31</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>90</v>
+      </c>
+      <c r="N7" s="11">
+        <v>62</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="19.85" customHeight="1">
+      <c r="A8" s="9">
+        <v>49</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="11">
+        <v>15</v>
+      </c>
+      <c r="E8" s="11">
+        <v>10</v>
+      </c>
+      <c r="F8" s="11">
+        <v>15</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>22</v>
+      </c>
+      <c r="N8" s="11">
+        <v>33</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="19.85" customHeight="1">
+      <c r="A9" s="9">
+        <v>285</v>
+      </c>
+      <c r="B9" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>150</v>
+      </c>
+      <c r="E9" s="11">
+        <v>15</v>
+      </c>
+      <c r="F9" s="11">
+        <v>300</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="11">
+        <v>2.7</v>
+      </c>
+      <c r="I9" s="11">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="L9" s="11">
+        <v>2.2</v>
+      </c>
+      <c r="M9" s="11">
+        <v>13</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+      <c r="O9" s="11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" ht="19.85" customHeight="1">
+      <c r="A10" s="9">
+        <v>149</v>
+      </c>
+      <c r="B10" s="10">
+        <v>26.6</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>480</v>
+      </c>
+      <c r="E10" s="11">
+        <v>35</v>
+      </c>
+      <c r="F10" s="11">
+        <v>460</v>
+      </c>
+      <c r="G10" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="L10" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="M10" s="11">
+        <v>33</v>
+      </c>
+      <c r="N10" s="11">
+        <v>2</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" ht="19.85" customHeight="1">
+      <c r="A11" s="9">
+        <v>218</v>
+      </c>
+      <c r="B11" s="10">
+        <v>19.1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="11">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11">
+        <v>170</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="H11" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="M11" s="11">
+        <v>5</v>
+      </c>
+      <c r="N11" s="11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" ht="19.85" customHeight="1">
+      <c r="A12" s="9">
+        <v>401</v>
+      </c>
+      <c r="B12" s="10">
+        <v>20.2</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>4</v>
+      </c>
+      <c r="E12" s="11">
+        <v>22</v>
+      </c>
+      <c r="F12" s="11">
+        <v>180</v>
+      </c>
+      <c r="G12" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="H12" s="11">
+        <v>4.6</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="J5" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="L5" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="M5" s="6">
+      <c r="K12" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="L12" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="M12" s="11">
+        <v>14</v>
+      </c>
+      <c r="N12" s="11">
+        <v>1</v>
+      </c>
+      <c r="O12" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" ht="19.85" customHeight="1">
+      <c r="A13" s="9">
+        <v>894</v>
+      </c>
+      <c r="B13" t="s" s="13">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="19.85" customHeight="1">
+      <c r="A14" s="9">
+        <v>890</v>
+      </c>
+      <c r="B14" t="s" s="13">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
+      <c r="O14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="19.85" customHeight="1">
+      <c r="A15" s="9">
+        <v>298</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>11</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="M15" s="11">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="19.85" customHeight="1">
+      <c r="A16" s="9">
+        <v>274</v>
+      </c>
+      <c r="B16" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="D16" s="11">
+        <v>17</v>
+      </c>
+      <c r="E16" s="11">
+        <v>12</v>
+      </c>
+      <c r="F16" s="11">
+        <v>42</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="L16" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="M16" s="11">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="O16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="19.85" customHeight="1">
+      <c r="A17" s="9">
+        <v>255</v>
+      </c>
+      <c r="B17" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
         <v>30</v>
       </c>
-      <c r="N5" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="O5" t="s" s="7">
+      <c r="E17" s="11">
+        <v>14</v>
+      </c>
+      <c r="F17" s="11">
+        <v>51</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="M17" s="11">
+        <v>12</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" ht="19.85" customHeight="1">
+      <c r="A18" s="9">
+        <v>227</v>
+      </c>
+      <c r="B18" s="10">
+        <v>13.3</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="D18" s="11">
         <v>16</v>
+      </c>
+      <c r="E18" s="11">
+        <v>22</v>
+      </c>
+      <c r="F18" s="11">
+        <v>150</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="I18" s="11">
+        <v>5</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="M18" s="11">
+        <v>13</v>
+      </c>
+      <c r="N18" s="11">
+        <v>1</v>
+      </c>
+      <c r="O18" s="11">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/nutrient_excel.xlsx
+++ b/nutrient_excel.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
-  <si>
-    <t>表1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>energy</t>
   </si>
@@ -83,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -95,6 +92,12 @@
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W6"/>
@@ -110,7 +113,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +129,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -249,47 +258,44 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -313,6 +319,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -329,10 +336,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -509,11 +516,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -522,26 +532,26 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -787,12 +797,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1073,7 +1083,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1341,11 +1351,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:O18"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1353,828 +1361,806 @@
     <col min="16" max="16384" width="19.6016" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.95" customHeight="1">
+    <row r="1" ht="22.55" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="B1" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="3">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" ht="20.05" customHeight="1">
+      <c r="A2" s="4">
+        <v>248</v>
+      </c>
+      <c r="B2" s="5">
+        <v>8.9</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6">
+        <v>67</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="J2" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>30</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" ht="19.85" customHeight="1">
+      <c r="A3" s="8">
+        <v>113</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10">
+        <v>24</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="I3" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="L3" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="M3" s="10">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="4">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="N2" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="5">
-        <v>248</v>
-      </c>
-      <c r="B3" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="C3" s="7">
-        <v>4.2</v>
-      </c>
-      <c r="D3" s="7">
-        <v>22</v>
-      </c>
-      <c r="E3" s="7">
-        <v>18</v>
-      </c>
-      <c r="F3" s="7">
-        <v>67</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>30</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>1.2</v>
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="19.85" customHeight="1">
-      <c r="A4" s="9">
-        <v>113</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="A4" s="8">
+        <v>59</v>
+      </c>
+      <c r="B4" s="9">
         <v>1.8</v>
       </c>
-      <c r="C4" s="11">
-        <v>1.1</v>
-      </c>
-      <c r="D4" s="11">
-        <v>3</v>
-      </c>
-      <c r="E4" s="11">
-        <v>5</v>
-      </c>
-      <c r="F4" s="11">
-        <v>24</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="C4" s="10">
+        <v>8.9</v>
+      </c>
+      <c r="D4" s="10">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10">
+        <v>19</v>
+      </c>
+      <c r="F4" s="10">
+        <v>47</v>
+      </c>
+      <c r="G4" s="10">
         <v>0.4</v>
       </c>
-      <c r="I4" t="s" s="12">
+      <c r="H4" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="J4" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="L4" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="M4" s="11">
-        <v>2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>0</v>
-      </c>
-      <c r="O4" s="11">
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <v>20</v>
+      </c>
+      <c r="N4" s="10">
+        <v>28</v>
+      </c>
+      <c r="O4" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="19.85" customHeight="1">
-      <c r="A5" s="9">
-        <v>59</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="C5" s="11">
-        <v>8.9</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="A5" s="8">
+        <v>32</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="D5" s="10">
+        <v>24</v>
+      </c>
+      <c r="E5" s="10">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10">
+        <v>28</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>23</v>
+      </c>
+      <c r="N5" s="10">
         <v>4</v>
       </c>
-      <c r="E5" s="11">
-        <v>19</v>
-      </c>
-      <c r="F5" s="11">
-        <v>47</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="11">
-        <v>1</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0</v>
-      </c>
-      <c r="M5" s="11">
-        <v>20</v>
-      </c>
-      <c r="N5" s="11">
-        <v>28</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0</v>
+      <c r="O5" s="10">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" ht="19.85" customHeight="1">
-      <c r="A6" s="9">
-        <v>32</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="C6" s="11">
-        <v>2.8</v>
-      </c>
-      <c r="D6" s="11">
-        <v>24</v>
-      </c>
-      <c r="E6" s="11">
-        <v>9</v>
-      </c>
-      <c r="F6" s="11">
-        <v>28</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="A6" s="8">
+        <v>31</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="D6" s="10">
+        <v>17</v>
+      </c>
+      <c r="E6" s="10">
+        <v>13</v>
+      </c>
+      <c r="F6" s="10">
+        <v>31</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="10">
         <v>0.2</v>
       </c>
-      <c r="H6" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
-        <v>23</v>
-      </c>
-      <c r="N6" s="11">
-        <v>4</v>
-      </c>
-      <c r="O6" s="11">
-        <v>0.1</v>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>90</v>
+      </c>
+      <c r="N6" s="10">
+        <v>62</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="19.85" customHeight="1">
-      <c r="A7" s="9">
-        <v>31</v>
-      </c>
-      <c r="B7" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1.4</v>
-      </c>
-      <c r="D7" s="11">
-        <v>17</v>
-      </c>
-      <c r="E7" s="11">
-        <v>13</v>
-      </c>
-      <c r="F7" s="11">
-        <v>31</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="I7" s="11">
-        <v>1</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0</v>
-      </c>
-      <c r="M7" s="11">
-        <v>90</v>
-      </c>
-      <c r="N7" s="11">
-        <v>62</v>
-      </c>
-      <c r="O7" s="11">
+      <c r="A7" s="8">
+        <v>49</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="10">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10">
+        <v>15</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>22</v>
+      </c>
+      <c r="N7" s="10">
+        <v>33</v>
+      </c>
+      <c r="O7" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="19.85" customHeight="1">
-      <c r="A8" s="9">
-        <v>49</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="D8" s="11">
-        <v>15</v>
-      </c>
-      <c r="E8" s="11">
-        <v>10</v>
-      </c>
-      <c r="F8" s="11">
-        <v>15</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
-        <v>22</v>
-      </c>
-      <c r="N8" s="11">
-        <v>33</v>
-      </c>
-      <c r="O8" s="11">
-        <v>0</v>
+      <c r="A8" s="8">
+        <v>285</v>
+      </c>
+      <c r="B8" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>150</v>
+      </c>
+      <c r="E8" s="10">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10">
+        <v>300</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="I8" s="10">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="L8" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="M8" s="10">
+        <v>13</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <v>1.3</v>
       </c>
     </row>
     <row r="9" ht="19.85" customHeight="1">
-      <c r="A9" s="9">
-        <v>285</v>
-      </c>
-      <c r="B9" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
-        <v>150</v>
-      </c>
-      <c r="E9" s="11">
-        <v>15</v>
-      </c>
-      <c r="F9" s="11">
-        <v>300</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="H9" s="11">
-        <v>2.7</v>
-      </c>
-      <c r="I9" s="11">
-        <v>77</v>
-      </c>
-      <c r="J9" t="s" s="12">
+      <c r="A9" s="8">
+        <v>149</v>
+      </c>
+      <c r="B9" s="9">
+        <v>26.6</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>480</v>
+      </c>
+      <c r="E9" s="10">
+        <v>35</v>
+      </c>
+      <c r="F9" s="10">
+        <v>460</v>
+      </c>
+      <c r="G9" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="L9" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="K9" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="L9" s="11">
-        <v>2.2</v>
-      </c>
-      <c r="M9" s="11">
-        <v>13</v>
-      </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
-      <c r="O9" s="11">
-        <v>1.3</v>
+      <c r="M9" s="10">
+        <v>33</v>
+      </c>
+      <c r="N9" s="10">
+        <v>2</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" ht="19.85" customHeight="1">
-      <c r="A10" s="9">
-        <v>149</v>
-      </c>
-      <c r="B10" s="10">
-        <v>26.6</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
-        <v>480</v>
-      </c>
-      <c r="E10" s="11">
-        <v>35</v>
-      </c>
-      <c r="F10" s="11">
-        <v>460</v>
-      </c>
-      <c r="G10" s="11">
-        <v>5.5</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0.16</v>
-      </c>
-      <c r="L10" t="s" s="12">
+      <c r="A10" s="8">
+        <v>218</v>
+      </c>
+      <c r="B10" s="9">
+        <v>19.1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="10">
         <v>20</v>
       </c>
-      <c r="M10" s="11">
-        <v>33</v>
-      </c>
-      <c r="N10" s="11">
-        <v>2</v>
-      </c>
-      <c r="O10" s="11">
-        <v>0.3</v>
+      <c r="F10" s="10">
+        <v>170</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="H10" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="M10" s="10">
+        <v>5</v>
+      </c>
+      <c r="N10" s="10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" ht="19.85" customHeight="1">
-      <c r="A11" s="9">
-        <v>218</v>
-      </c>
-      <c r="B11" s="10">
-        <v>19.1</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="A11" s="8">
+        <v>401</v>
+      </c>
+      <c r="B11" s="9">
+        <v>20.2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
         <v>4</v>
       </c>
-      <c r="E11" s="11">
-        <v>20</v>
-      </c>
-      <c r="F11" s="11">
-        <v>170</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1.3</v>
-      </c>
-      <c r="H11" s="11">
-        <v>3.4</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0.46</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="M11" s="11">
-        <v>5</v>
-      </c>
-      <c r="N11" s="11">
+      <c r="E11" s="10">
+        <v>22</v>
+      </c>
+      <c r="F11" s="10">
+        <v>180</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="H11" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="I11" s="10">
         <v>1</v>
       </c>
-      <c r="O11" s="11">
-        <v>0.1</v>
+      <c r="J11" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="L11" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="M11" s="10">
+        <v>14</v>
+      </c>
+      <c r="N11" s="10">
+        <v>1</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" ht="19.85" customHeight="1">
-      <c r="A12" s="9">
-        <v>401</v>
-      </c>
-      <c r="B12" s="10">
-        <v>20.2</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
-        <v>4</v>
-      </c>
-      <c r="E12" s="11">
-        <v>22</v>
-      </c>
-      <c r="F12" s="11">
-        <v>180</v>
-      </c>
-      <c r="G12" s="11">
-        <v>2.9</v>
-      </c>
-      <c r="H12" s="11">
-        <v>4.6</v>
-      </c>
-      <c r="I12" s="11">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0.16</v>
-      </c>
-      <c r="L12" s="11">
-        <v>5.4</v>
-      </c>
-      <c r="M12" s="11">
-        <v>14</v>
-      </c>
-      <c r="N12" s="11">
-        <v>1</v>
-      </c>
-      <c r="O12" s="11">
-        <v>0.2</v>
+      <c r="A12" s="8">
+        <v>894</v>
+      </c>
+      <c r="B12" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="13" ht="19.85" customHeight="1">
-      <c r="A13" s="9">
-        <v>894</v>
-      </c>
-      <c r="B13" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-      <c r="O13" s="11">
+      <c r="A13" s="8">
+        <v>890</v>
+      </c>
+      <c r="B13" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="19.85" customHeight="1">
-      <c r="A14" s="9">
-        <v>890</v>
-      </c>
-      <c r="B14" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="A14" s="8">
+        <v>298</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10">
         <v>1</v>
       </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
+        <v>11</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="10">
         <v>1</v>
       </c>
-      <c r="G14" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11">
-        <v>0</v>
-      </c>
-      <c r="L14" s="11">
-        <v>0</v>
-      </c>
-      <c r="M14" s="11">
-        <v>0</v>
-      </c>
-      <c r="N14" s="11">
-        <v>0</v>
-      </c>
-      <c r="O14" s="11">
+      <c r="J14" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="M14" s="10">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="O14" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="19.85" customHeight="1">
-      <c r="A15" s="9">
-        <v>298</v>
-      </c>
-      <c r="B15" s="10">
+      <c r="A15" s="8">
+        <v>274</v>
+      </c>
+      <c r="B15" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="C15" s="10">
         <v>1.6</v>
       </c>
-      <c r="C15" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="11">
-        <v>2</v>
-      </c>
-      <c r="E15" s="11">
-        <v>1</v>
-      </c>
-      <c r="F15" s="11">
-        <v>11</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="I15" s="11">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="M15" s="11">
+      <c r="D15" s="10">
+        <v>17</v>
+      </c>
+      <c r="E15" s="10">
+        <v>12</v>
+      </c>
+      <c r="F15" s="10">
+        <v>42</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="L15" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="M15" s="10">
         <v>3</v>
       </c>
-      <c r="N15" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="O15" s="11">
+      <c r="N15" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="O15" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="19.85" customHeight="1">
-      <c r="A16" s="9">
-        <v>274</v>
-      </c>
-      <c r="B16" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="C16" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="D16" s="11">
-        <v>17</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="A16" s="8">
+        <v>255</v>
+      </c>
+      <c r="B16" s="9">
+        <v>5.1</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
+        <v>30</v>
+      </c>
+      <c r="E16" s="10">
+        <v>14</v>
+      </c>
+      <c r="F16" s="10">
+        <v>51</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="M16" s="10">
         <v>12</v>
       </c>
-      <c r="F16" s="11">
-        <v>42</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="N16" s="10">
+        <v>0</v>
+      </c>
+      <c r="O16" s="10">
         <v>0.8</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="K16" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="L16" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="M16" s="11">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="O16" s="11">
-        <v>0</v>
       </c>
     </row>
     <row r="17" ht="19.85" customHeight="1">
-      <c r="A17" s="9">
-        <v>255</v>
-      </c>
-      <c r="B17" s="10">
-        <v>5.1</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="A17" s="8">
+        <v>227</v>
+      </c>
+      <c r="B17" s="9">
+        <v>13.3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="D17" s="10">
+        <v>16</v>
+      </c>
+      <c r="E17" s="10">
+        <v>22</v>
+      </c>
+      <c r="F17" s="10">
+        <v>150</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="I17" s="10">
+        <v>5</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="M17" s="10">
+        <v>13</v>
+      </c>
+      <c r="N17" s="10">
         <v>1</v>
       </c>
-      <c r="D17" s="11">
-        <v>30</v>
-      </c>
-      <c r="E17" s="11">
-        <v>14</v>
-      </c>
-      <c r="F17" s="11">
-        <v>51</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="I17" s="11">
-        <v>1</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="M17" s="11">
-        <v>12</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-      <c r="O17" s="11">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" ht="19.85" customHeight="1">
-      <c r="A18" s="9">
-        <v>227</v>
-      </c>
-      <c r="B18" s="10">
-        <v>13.3</v>
-      </c>
-      <c r="C18" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="D18" s="11">
-        <v>16</v>
-      </c>
-      <c r="E18" s="11">
-        <v>22</v>
-      </c>
-      <c r="F18" s="11">
-        <v>150</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="I18" s="11">
-        <v>5</v>
-      </c>
-      <c r="J18" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="K18" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="L18" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="M18" s="11">
-        <v>13</v>
-      </c>
-      <c r="N18" s="11">
-        <v>1</v>
-      </c>
-      <c r="O18" s="11">
+      <c r="O17" s="10">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
